--- a/Data/Predictions/Graph Neural Network/Inductive/exclude_previous_rating_model_2_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/Inductive/exclude_previous_rating_model_2_predictions.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">

--- a/Data/Predictions/Graph Neural Network/Inductive/exclude_previous_rating_model_2_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/Inductive/exclude_previous_rating_model_2_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C403"/>
+  <dimension ref="A1:C402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3734,7 +3734,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3744,24 +3744,24 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>KODK : 2016-10-01</t>
+          <t>KOS : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>KOS : 2016-01-01</t>
+          <t>KSS : 2013-07-01</t>
         </is>
       </c>
     </row>
@@ -3778,31 +3778,31 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>KSS : 2013-07-01</t>
+          <t>KSS : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>KSS : 2014-10-01</t>
+          <t>KW : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>KW : 2015-01-01</t>
+          <t>LAMR : 2015-07-01</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>LAMR : 2015-07-01</t>
+          <t>LAMR : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -3846,31 +3846,31 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>LAMR : 2016-04-01</t>
+          <t>LKQ : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>LKQ : 2016-04-01</t>
+          <t>LLY : 2012-01-01</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>LLY : 2012-01-01</t>
+          <t>LLY : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -3897,41 +3897,41 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>LLY : 2015-04-01</t>
+          <t>LLY : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>LLY : 2015-10-01</t>
+          <t>LPX : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>LPX : 2014-10-01</t>
+          <t>LRCX : 2013-07-01</t>
         </is>
       </c>
     </row>
@@ -3943,12 +3943,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>LRCX : 2013-07-01</t>
+          <t>LUV : 2012-04-01</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>LUV : 2012-04-01</t>
+          <t>LUV : 2013-10-01</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>LUV : 2013-10-01</t>
+          <t>LUV : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>LUV : 2014-07-01</t>
+          <t>LUV : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -4011,36 +4011,36 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>LUV : 2014-10-01</t>
+          <t>LVS : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>LVS : 2015-04-01</t>
+          <t>LYV : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>LYV : 2016-07-01</t>
+          <t>MCHP : 2012-10-01</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>MCHP : 2012-10-01</t>
+          <t>MCHP : 2013-01-01</t>
         </is>
       </c>
     </row>
@@ -4079,19 +4079,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>MCHP : 2013-01-01</t>
+          <t>MCHP : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4101,14 +4101,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>MCHP : 2015-01-01</t>
+          <t>MCHP : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4118,24 +4118,24 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>MCHP : 2015-04-01</t>
+          <t>MCHP : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>MCHP : 2016-04-01</t>
+          <t>MCO : 2012-07-01</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>MCO : 2012-07-01</t>
+          <t>MCO : 2013-01-01</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>MCO : 2013-01-01</t>
+          <t>MCO : 2014-01-01</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>MCO : 2014-01-01</t>
+          <t>MCO : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>MCO : 2014-07-01</t>
+          <t>MCO : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -4220,31 +4220,31 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>MCO : 2015-04-01</t>
+          <t>MCO : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>MCO : 2015-10-01</t>
+          <t>MDLZ : 2012-04-01</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>MDLZ : 2012-04-01</t>
+          <t>MDLZ : 2012-10-01</t>
         </is>
       </c>
     </row>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MDLZ : 2012-10-01</t>
+          <t>MDLZ : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -4283,36 +4283,36 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>MDLZ : 2016-04-01</t>
+          <t>MEOH : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>MEOH : 2016-10-01</t>
+          <t>MERC : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -4322,14 +4322,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>MERC : 2016-01-01</t>
+          <t>MGM : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>MGM : 2014-07-01</t>
+          <t>MLM : 2013-07-01</t>
         </is>
       </c>
     </row>
@@ -4351,53 +4351,53 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>MLM : 2013-07-01</t>
+          <t>MLM : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MLM : 2016-10-01</t>
+          <t>MMM : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>MMM : 2015-04-01</t>
+          <t>MMP : 2013-04-01</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -4407,14 +4407,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>MMP : 2013-04-01</t>
+          <t>MMP : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -4424,31 +4424,31 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>MMP : 2014-07-01</t>
+          <t>MMP : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>MMP : 2016-07-01</t>
+          <t>MRC : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -4458,24 +4458,24 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>MRC : 2014-07-01</t>
+          <t>MRC : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>MRC : 2015-07-01</t>
+          <t>MRK : 2015-10-01</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>MRK : 2015-10-01</t>
+          <t>MRK : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>MRK : 2016-01-01</t>
+          <t>MSFT : 2011-10-01</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>MSFT : 2011-10-01</t>
+          <t>MSFT : 2013-10-01</t>
         </is>
       </c>
     </row>
@@ -4543,24 +4543,24 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>MSFT : 2013-10-01</t>
+          <t>MSFT : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>MSFT : 2014-01-01</t>
+          <t>MSI : 2011-10-01</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>MSI : 2011-10-01</t>
+          <t>MSI : 2012-07-01</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MSI : 2012-07-01</t>
+          <t>MSI : 2013-01-01</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>MSI : 2013-01-01</t>
+          <t>MSI : 2013-04-01</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>MSI : 2013-04-01</t>
+          <t>MSI : 2013-07-01</t>
         </is>
       </c>
     </row>
@@ -4645,24 +4645,24 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>MSI : 2013-07-01</t>
+          <t>MSI : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>MSI : 2015-01-01</t>
+          <t>MTN : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>MTN : 2016-01-01</t>
+          <t>MTZ : 2012-07-01</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>MTZ : 2012-07-01</t>
+          <t>MTZ : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -4708,12 +4708,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>MTZ : 2015-01-01</t>
+          <t>MUR : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>MUR : 2015-01-01</t>
+          <t>NCR : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>NCR : 2015-04-01</t>
+          <t>NCR : 2015-10-01</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>NCR : 2015-10-01</t>
+          <t>NCR : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -4776,29 +4776,29 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>NCR : 2016-04-01</t>
+          <t>NCR : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>NCR : 2016-07-01</t>
+          <t>NEE : 2012-01-01</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>NEE : 2012-01-01</t>
+          <t>NEE : 2012-04-01</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>NEE : 2012-04-01</t>
+          <t>NEE : 2012-10-01</t>
         </is>
       </c>
     </row>
@@ -4849,14 +4849,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>NEE : 2012-10-01</t>
+          <t>NEM : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4866,48 +4866,48 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>NEM : 2014-04-01</t>
+          <t>NFG : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>NFG : 2015-01-01</t>
+          <t>NFLX : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>NFLX : 2013-10-01</t>
+          <t>NFLX : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>NFLX : 2015-10-01</t>
+          <t>NGL : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -4934,24 +4934,24 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>NGL : 2015-01-01</t>
+          <t>NGL : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>NGL : 2016-10-01</t>
+          <t>NOC : 2012-07-01</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>NOC : 2012-07-01</t>
+          <t>NOC : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -4985,24 +4985,24 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>NOC : 2016-01-01</t>
+          <t>NOC : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>NOC : 2016-07-01</t>
+          <t>NRG : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -5014,19 +5014,19 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>NRG : 2014-07-01</t>
+          <t>NRG : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5036,92 +5036,92 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>NRG : 2016-01-01</t>
+          <t>NTAP : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>NTAP : 2014-07-01</t>
+          <t>NVDA : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>NVDA : 2015-10-01</t>
+          <t>NWE : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>NWE : 2014-07-01</t>
+          <t>OGE : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>OGE : 2016-04-01</t>
+          <t>OLN : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>OLN : 2015-07-01</t>
+          <t>ORCL : 2012-07-01</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>ORCL : 2012-07-01</t>
+          <t>ORCL : 2013-10-01</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>ORCL : 2013-10-01</t>
+          <t>ORCL : 2014-01-01</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>ORCL : 2014-01-01</t>
+          <t>ORCL : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>ORCL : 2015-04-01</t>
+          <t>ORCL : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -5201,29 +5201,29 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>ORCL : 2016-01-01</t>
+          <t>ORCL : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>ORCL : 2016-10-01</t>
+          <t>ORLY : 2014-04-01</t>
         </is>
       </c>
     </row>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>ORLY : 2014-04-01</t>
+          <t>OTEX : 2014-01-01</t>
         </is>
       </c>
     </row>
@@ -5252,19 +5252,19 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>OTEX : 2014-01-01</t>
+          <t>OTEX : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -5274,14 +5274,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>OTEX : 2015-01-01</t>
+          <t>OTEX : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -5291,14 +5291,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>OTEX : 2015-10-01</t>
+          <t>OXY : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -5308,41 +5308,41 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>OXY : 2014-07-01</t>
+          <t>PAA : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>PAA : 2015-01-01</t>
+          <t>PAG : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>PAG : 2015-10-01</t>
+          <t>PBI : 2012-10-01</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>PBI : 2012-10-01</t>
+          <t>PCAR : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -5376,14 +5376,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>PCAR : 2016-04-01</t>
+          <t>PCAR : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -5393,14 +5393,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>PCAR : 2016-07-01</t>
+          <t>PCG : 2013-04-01</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>PCG : 2013-04-01</t>
+          <t>PCG : 2015-07-01</t>
         </is>
       </c>
     </row>
@@ -5422,12 +5422,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>PCG : 2015-07-01</t>
+          <t>PEG : 2013-10-01</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>PEG : 2013-10-01</t>
+          <t>PEG : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>PEG : 2014-07-01</t>
+          <t>PEG : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>PEG : 2014-10-01</t>
+          <t>PEG : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>PEG : 2015-01-01</t>
+          <t>PEG : 2015-10-01</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>PEG : 2015-10-01</t>
+          <t>PEP : 2014-04-01</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>PEP : 2014-04-01</t>
+          <t>PEP : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>PEP : 2015-01-01</t>
+          <t>PEP : 2015-10-01</t>
         </is>
       </c>
     </row>
@@ -5558,29 +5558,29 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>PEP : 2015-10-01</t>
+          <t>PEP : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>PEP : 2016-01-01</t>
+          <t>PFGC : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -5592,12 +5592,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>PFGC : 2016-10-01</t>
+          <t>PNM : 2012-04-01</t>
         </is>
       </c>
     </row>
@@ -5614,14 +5614,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>PNM : 2012-04-01</t>
+          <t>PNM : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>PNM : 2013-10-01</t>
+          <t>PNW : 2016-07-01</t>
         </is>
       </c>
     </row>
@@ -5643,12 +5643,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>PNW : 2016-07-01</t>
+          <t>POR : 2012-10-01</t>
         </is>
       </c>
     </row>
@@ -5660,46 +5660,46 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>POR : 2012-10-01</t>
+          <t>POR : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>POR : 2014-01-01</t>
+          <t>POST : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>POST : 2016-04-01</t>
+          <t>PSX : 2016-07-01</t>
         </is>
       </c>
     </row>
@@ -5711,19 +5711,19 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>PSX : 2016-07-01</t>
+          <t>PSX : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5733,31 +5733,31 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>PSX : 2016-10-01</t>
+          <t>PXD : 2012-07-01</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>PXD : 2012-07-01</t>
+          <t>RHP : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>RHP : 2014-04-01</t>
+          <t>RRC : 2012-04-01</t>
         </is>
       </c>
     </row>
@@ -5779,12 +5779,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>RRC : 2012-04-01</t>
+          <t>RRC : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>RRC : 2014-10-01</t>
+          <t>RRC : 2015-10-01</t>
         </is>
       </c>
     </row>
@@ -5818,24 +5818,24 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>RRC : 2015-10-01</t>
+          <t>RRC : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>RRC : 2016-10-01</t>
+          <t>RS : 2014-04-01</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>RS : 2014-04-01</t>
+          <t>RS : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>RS : 2016-01-01</t>
+          <t>RS : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -5886,24 +5886,24 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>RS : 2016-04-01</t>
+          <t>RS : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>RS : 2016-07-01</t>
+          <t>SALM : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>SALM : 2016-01-01</t>
+          <t>SALM : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -5932,12 +5932,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>SALM : 2016-04-01</t>
+          <t>SBAC : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>SBAC : 2016-04-01</t>
+          <t>SBGI : 2015-07-01</t>
         </is>
       </c>
     </row>
@@ -5966,29 +5966,29 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>SBGI : 2015-07-01</t>
+          <t>SBGI : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>SBGI : 2015-10-01</t>
+          <t>SBUX : 2012-10-01</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>SBUX : 2012-10-01</t>
+          <t>SBUX : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>SBUX : 2015-04-01</t>
+          <t>SBUX : 2016-07-01</t>
         </is>
       </c>
     </row>
@@ -6034,29 +6034,29 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>SBUX : 2016-07-01</t>
+          <t>SCCO : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>SCCO : 2016-10-01</t>
+          <t>SEAS : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -6068,36 +6068,36 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>SEAS : 2016-04-01</t>
+          <t>SLCA : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>SLCA : 2014-10-01</t>
+          <t>SLCA : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>SLCA : 2016-10-01</t>
+          <t>SLGN : 2016-07-01</t>
         </is>
       </c>
     </row>
@@ -6119,12 +6119,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>SLGN : 2016-07-01</t>
+          <t>SM : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -6136,36 +6136,36 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>SM : 2014-10-01</t>
+          <t>SM : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>SM : 2015-10-01</t>
+          <t>SNA : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>SNA : 2014-04-01</t>
+          <t>SRE : 2013-07-01</t>
         </is>
       </c>
     </row>
@@ -6192,24 +6192,24 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>SRE : 2013-07-01</t>
+          <t>SRE : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>SRE : 2016-04-01</t>
+          <t>SSP : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>SSP : 2015-04-01</t>
+          <t>SSP : 2016-07-01</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>SSP : 2016-07-01</t>
+          <t>STLD : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>STLD : 2016-10-01</t>
+          <t>STX : 2013-07-01</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>STX : 2013-07-01</t>
+          <t>STX : 2013-10-01</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>STX : 2013-10-01</t>
+          <t>STX : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -6306,12 +6306,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>STX : 2014-07-01</t>
+          <t>STX : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -6323,19 +6323,19 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>STX : 2015-04-01</t>
+          <t>STX : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>STX : 2015-10-01</t>
+          <t>SWN : 2015-10-01</t>
         </is>
       </c>
     </row>
@@ -6357,63 +6357,63 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>SWN : 2015-10-01</t>
+          <t>SWN : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>SWN : 2016-07-01</t>
+          <t>SYK : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>SYK : 2016-07-01</t>
+          <t>TDG : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>TDG : 2016-01-01</t>
+          <t>TEX : 2013-01-01</t>
         </is>
       </c>
     </row>
@@ -6430,14 +6430,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>TEX : 2013-01-01</t>
+          <t>TEX : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>TEX : 2013-10-01</t>
+          <t>TEX : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -6459,12 +6459,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>TEX : 2016-04-01</t>
+          <t>TGI : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -6476,12 +6476,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>TGI : 2014-10-01</t>
+          <t>TGI : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -6498,24 +6498,24 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>TGI : 2015-01-01</t>
+          <t>TGNA : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>TGNA : 2016-07-01</t>
+          <t>TGT : 2013-07-01</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>TGT : 2013-07-01</t>
+          <t>TGT : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -6544,12 +6544,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>TGT : 2014-07-01</t>
+          <t>TGT : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -6566,58 +6566,58 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>TGT : 2014-10-01</t>
+          <t>TGT : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>TGT : 2015-07-01</t>
+          <t>THC : 2012-07-01</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>THC : 2012-07-01</t>
+          <t>TKR : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>TKR : 2014-01-01</t>
+          <t>TMUS : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -6629,12 +6629,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>TMUS : 2016-01-01</t>
+          <t>TMUS : 2016-07-01</t>
         </is>
       </c>
     </row>
@@ -6651,31 +6651,31 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>TMUS : 2016-07-01</t>
+          <t>TMUS : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>TMUS : 2016-10-01</t>
+          <t>TOL : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -6685,24 +6685,24 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>TOL : 2016-10-01</t>
+          <t>TRMB : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>TRMB : 2016-01-01</t>
+          <t>TRS : 2014-01-01</t>
         </is>
       </c>
     </row>
@@ -6714,19 +6714,19 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>TRS : 2014-01-01</t>
+          <t>TRS : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>TRS : 2016-10-01</t>
+          <t>TUP : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -6753,24 +6753,24 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>TUP : 2016-04-01</t>
+          <t>TUP : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>TUP : 2016-07-01</t>
+          <t>TWI : 2014-01-01</t>
         </is>
       </c>
     </row>
@@ -6787,41 +6787,41 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>TWI : 2014-01-01</t>
+          <t>TWI : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>TWI : 2015-07-01</t>
+          <t>TXN : 2013-01-01</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>TXN : 2013-01-01</t>
+          <t>UHS : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -6833,12 +6833,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>UHS : 2016-10-01</t>
+          <t>UIS : 2013-10-01</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>UIS : 2013-10-01</t>
+          <t>UIS : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>UIS : 2014-07-01</t>
+          <t>UIS : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>UIS : 2015-01-01</t>
+          <t>UIS : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -6906,48 +6906,48 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>UIS : 2015-04-01</t>
+          <t>UIS : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>UIS : 2016-01-01</t>
+          <t>UPS : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>UPS : 2015-01-01</t>
+          <t>URI : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6957,14 +6957,14 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>URI : 2013-10-01</t>
+          <t>USM : 2013-04-01</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6974,92 +6974,92 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>USM : 2013-04-01</t>
+          <t>USM : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>USM : 2014-10-01</t>
+          <t>VGR : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>VGR : 2014-10-01</t>
+          <t>VMC : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>VMC : 2014-01-01</t>
+          <t>VMI : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>VMI : 2014-10-01</t>
+          <t>VSH : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>VSH : 2014-10-01</t>
+          <t>WBA : 2013-07-01</t>
         </is>
       </c>
     </row>
@@ -7071,19 +7071,19 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>WBA : 2013-07-01</t>
+          <t>WEC : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>WEC : 2015-10-01</t>
+          <t>WM : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -7110,31 +7110,31 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>WM : 2016-01-01</t>
+          <t>WM : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>WM : 2016-07-01</t>
+          <t>WMB : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -7144,31 +7144,31 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>WMB : 2013-07-01</t>
+          <t>WTI : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>WTI : 2014-01-01</t>
+          <t>XEL : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>XEL : 2013-10-01</t>
+          <t>XEL : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>XEL : 2016-01-01</t>
+          <t>XEL : 2016-07-01</t>
         </is>
       </c>
     </row>
@@ -7212,73 +7212,56 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>XEL : 2016-07-01</t>
+          <t>XEL : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>XEL : 2016-10-01</t>
+          <t>XOM : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>XOM : 2016-01-01</t>
+          <t>YUM : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
-        <is>
-          <t>YUM : 2015-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr">
         <is>
           <t>ZBRA : 2016-10-01</t>
         </is>

--- a/Data/Predictions/Graph Neural Network/Inductive/exclude_previous_rating_model_2_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/Inductive/exclude_previous_rating_model_2_predictions.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
